--- a/Artea/data/key_advantages/key_advantages.xlsx
+++ b/Artea/data/key_advantages/key_advantages.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thoma\Documents\Projects\Artea\One Shot Analysis\dashboard\data\key_advantages\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81CA1550-F303-4D9C-98E2-8EBD4C71D594}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Artea" sheetId="1" r:id="rId1"/>
@@ -13,12 +19,12 @@
     <sheet name="SEB_Lietuvoje" sheetId="4" r:id="rId4"/>
     <sheet name="Swedbank_Lietuvoje" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="78">
   <si>
     <t>advantage_id</t>
   </si>
@@ -253,9 +259,6 @@
     <t>Kyla klausimų apie investavimą į fondus? Žiūrėk naują „Swedbank“ seriją „Klausimai – atsakymai“ ir gilink savo žinias! (Have questions about investing in funds? Watch the new 'Swedbank' series 'Questions - Answers' and deepen your knowledge!)</t>
   </si>
   <si>
-    <t>Kyla klausimų apie investavimą į fondus? Žiūrėk „Swedbank“ seriją „Klausimai – atsakymai“ ir gilink savo žinias! (Have questions about investing in funds? Watch the 'Swedbank' series 'Questions - Answers' and deepen your knowledge!)</t>
-  </si>
-  <si>
     <t>Keičiamės ne tik mes, kartais ir mūsų namams reikia pokyčių. Metas atnaujinti būstą – pravers vartojimo paskola namams. (We are changing, and sometimes our homes need changes too. It's time to renovate your home - a consumer loan for homes will come in handy.)</t>
   </si>
   <si>
@@ -265,8 +268,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -329,13 +332,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -373,7 +384,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -407,6 +418,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -441,9 +453,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -616,14 +629,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -643,7 +658,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -663,103 +678,63 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E3">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="F3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4">
         <v>10</v>
       </c>
-      <c r="D4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4">
-        <v>3</v>
-      </c>
       <c r="F4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E5">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="F5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6">
-        <v>3</v>
-      </c>
-      <c r="B6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6">
-        <v>10</v>
-      </c>
-      <c r="F6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7">
-        <v>3</v>
-      </c>
-      <c r="B7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7">
-        <v>27</v>
-      </c>
-      <c r="F7" t="s">
         <v>18</v>
       </c>
     </row>
@@ -769,14 +744,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -796,7 +771,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -816,7 +791,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -836,7 +811,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -856,7 +831,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2</v>
       </c>
@@ -876,7 +851,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>3</v>
       </c>
@@ -896,7 +871,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>3</v>
       </c>
@@ -922,14 +897,16 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -949,7 +926,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -969,143 +946,63 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F4" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C5" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E5">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F5" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6">
-        <v>3</v>
-      </c>
-      <c r="B6" t="s">
-        <v>36</v>
-      </c>
-      <c r="C6" t="s">
-        <v>40</v>
-      </c>
-      <c r="D6" t="s">
-        <v>44</v>
-      </c>
-      <c r="E6">
-        <v>4</v>
-      </c>
-      <c r="F6" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7">
-        <v>3</v>
-      </c>
-      <c r="B7" t="s">
-        <v>36</v>
-      </c>
-      <c r="C7" t="s">
-        <v>40</v>
-      </c>
-      <c r="D7" t="s">
-        <v>44</v>
-      </c>
-      <c r="E7">
-        <v>34</v>
-      </c>
-      <c r="F7" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8">
-        <v>4</v>
-      </c>
-      <c r="B8" t="s">
-        <v>37</v>
-      </c>
-      <c r="C8" t="s">
-        <v>41</v>
-      </c>
-      <c r="D8" t="s">
-        <v>45</v>
-      </c>
-      <c r="E8">
-        <v>5</v>
-      </c>
-      <c r="F8" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9">
-        <v>4</v>
-      </c>
-      <c r="B9" t="s">
-        <v>37</v>
-      </c>
-      <c r="C9" t="s">
-        <v>41</v>
-      </c>
-      <c r="D9" t="s">
-        <v>45</v>
-      </c>
-      <c r="E9">
-        <v>17</v>
-      </c>
-      <c r="F9" t="s">
         <v>49</v>
       </c>
     </row>
@@ -1115,14 +1012,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1142,7 +1039,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1162,7 +1059,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1182,7 +1079,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -1202,7 +1099,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2</v>
       </c>
@@ -1222,7 +1119,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>3</v>
       </c>
@@ -1242,7 +1139,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>3</v>
       </c>
@@ -1268,14 +1165,16 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1295,7 +1194,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1315,7 +1214,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1335,7 +1234,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -1355,27 +1254,27 @@
         <v>75</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C5" t="s">
-        <v>50</v>
+        <v>69</v>
       </c>
       <c r="D5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E5">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="F5" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>3</v>
       </c>
@@ -1389,30 +1288,10 @@
         <v>72</v>
       </c>
       <c r="E6">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="F6" t="s">
         <v>77</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7">
-        <v>3</v>
-      </c>
-      <c r="B7" t="s">
-        <v>67</v>
-      </c>
-      <c r="C7" t="s">
-        <v>69</v>
-      </c>
-      <c r="D7" t="s">
-        <v>72</v>
-      </c>
-      <c r="E7">
-        <v>17</v>
-      </c>
-      <c r="F7" t="s">
-        <v>78</v>
       </c>
     </row>
   </sheetData>
